--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_165.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_165.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d82682-Reviews-Courtyard_Los_Angeles_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>216</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Courtyard-By-Marriott-Los-Angeles-Woodland-Hills.h21687.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_165.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_165.xlsx
@@ -3578,7 +3578,7 @@
         <v>149</v>
       </c>
       <c r="B2" t="n">
-        <v>133287</v>
+        <v>164114</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -3649,7 +3649,7 @@
         <v>149</v>
       </c>
       <c r="B3" t="n">
-        <v>133288</v>
+        <v>164115</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -3779,7 +3779,7 @@
         <v>149</v>
       </c>
       <c r="B5" t="n">
-        <v>133289</v>
+        <v>164116</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
@@ -3915,7 +3915,7 @@
         <v>149</v>
       </c>
       <c r="B7" t="n">
-        <v>133290</v>
+        <v>164117</v>
       </c>
       <c r="C7" t="s">
         <v>96</v>
@@ -4045,7 +4045,7 @@
         <v>149</v>
       </c>
       <c r="B9" t="n">
-        <v>133291</v>
+        <v>164118</v>
       </c>
       <c r="C9" t="s">
         <v>112</v>
@@ -4112,7 +4112,7 @@
         <v>149</v>
       </c>
       <c r="B10" t="n">
-        <v>133292</v>
+        <v>164119</v>
       </c>
       <c r="C10" t="s">
         <v>119</v>
@@ -4173,7 +4173,7 @@
         <v>149</v>
       </c>
       <c r="B11" t="n">
-        <v>133293</v>
+        <v>164120</v>
       </c>
       <c r="C11" t="s">
         <v>126</v>
@@ -4311,7 +4311,7 @@
         <v>149</v>
       </c>
       <c r="B13" t="n">
-        <v>133294</v>
+        <v>164121</v>
       </c>
       <c r="C13" t="s">
         <v>144</v>
@@ -4382,7 +4382,7 @@
         <v>149</v>
       </c>
       <c r="B14" t="n">
-        <v>133295</v>
+        <v>164122</v>
       </c>
       <c r="C14" t="s">
         <v>152</v>
@@ -4451,7 +4451,7 @@
         <v>149</v>
       </c>
       <c r="B15" t="n">
-        <v>133296</v>
+        <v>164123</v>
       </c>
       <c r="C15" t="s">
         <v>162</v>
@@ -4516,7 +4516,7 @@
         <v>149</v>
       </c>
       <c r="B16" t="n">
-        <v>133297</v>
+        <v>164124</v>
       </c>
       <c r="C16" t="s">
         <v>171</v>
@@ -4648,7 +4648,7 @@
         <v>149</v>
       </c>
       <c r="B18" t="n">
-        <v>133298</v>
+        <v>164125</v>
       </c>
       <c r="C18" t="s">
         <v>186</v>
@@ -4778,7 +4778,7 @@
         <v>149</v>
       </c>
       <c r="B20" t="n">
-        <v>133299</v>
+        <v>164126</v>
       </c>
       <c r="C20" t="s">
         <v>201</v>
@@ -4843,7 +4843,7 @@
         <v>149</v>
       </c>
       <c r="B21" t="n">
-        <v>133300</v>
+        <v>164127</v>
       </c>
       <c r="C21" t="s">
         <v>207</v>
@@ -4908,7 +4908,7 @@
         <v>149</v>
       </c>
       <c r="B22" t="n">
-        <v>133301</v>
+        <v>164128</v>
       </c>
       <c r="C22" t="s">
         <v>215</v>
@@ -4975,7 +4975,7 @@
         <v>149</v>
       </c>
       <c r="B23" t="n">
-        <v>133302</v>
+        <v>164129</v>
       </c>
       <c r="C23" t="s">
         <v>222</v>
@@ -5040,7 +5040,7 @@
         <v>149</v>
       </c>
       <c r="B24" t="n">
-        <v>133303</v>
+        <v>164130</v>
       </c>
       <c r="C24" t="s">
         <v>232</v>
@@ -5180,7 +5180,7 @@
         <v>149</v>
       </c>
       <c r="B26" t="n">
-        <v>133304</v>
+        <v>164131</v>
       </c>
       <c r="C26" t="s">
         <v>250</v>
@@ -5320,7 +5320,7 @@
         <v>149</v>
       </c>
       <c r="B28" t="n">
-        <v>133305</v>
+        <v>164132</v>
       </c>
       <c r="C28" t="s">
         <v>269</v>
@@ -5385,7 +5385,7 @@
         <v>149</v>
       </c>
       <c r="B29" t="n">
-        <v>133306</v>
+        <v>164133</v>
       </c>
       <c r="C29" t="s">
         <v>279</v>
@@ -5450,7 +5450,7 @@
         <v>149</v>
       </c>
       <c r="B30" t="n">
-        <v>133307</v>
+        <v>164134</v>
       </c>
       <c r="C30" t="s">
         <v>288</v>
@@ -5584,7 +5584,7 @@
         <v>149</v>
       </c>
       <c r="B32" t="n">
-        <v>133308</v>
+        <v>164135</v>
       </c>
       <c r="C32" t="s">
         <v>305</v>
@@ -5649,7 +5649,7 @@
         <v>149</v>
       </c>
       <c r="B33" t="n">
-        <v>133309</v>
+        <v>164136</v>
       </c>
       <c r="C33" t="s">
         <v>312</v>
@@ -5787,7 +5787,7 @@
         <v>149</v>
       </c>
       <c r="B35" t="n">
-        <v>133310</v>
+        <v>164137</v>
       </c>
       <c r="C35" t="s">
         <v>328</v>
@@ -5858,7 +5858,7 @@
         <v>149</v>
       </c>
       <c r="B36" t="n">
-        <v>133311</v>
+        <v>164138</v>
       </c>
       <c r="C36" t="s">
         <v>335</v>
@@ -5919,7 +5919,7 @@
         <v>149</v>
       </c>
       <c r="B37" t="n">
-        <v>133312</v>
+        <v>164139</v>
       </c>
       <c r="C37" t="s">
         <v>341</v>
@@ -5984,7 +5984,7 @@
         <v>149</v>
       </c>
       <c r="B38" t="n">
-        <v>133313</v>
+        <v>164140</v>
       </c>
       <c r="C38" t="s">
         <v>348</v>
@@ -6116,7 +6116,7 @@
         <v>149</v>
       </c>
       <c r="B40" t="n">
-        <v>133314</v>
+        <v>164141</v>
       </c>
       <c r="C40" t="s">
         <v>365</v>
@@ -6185,7 +6185,7 @@
         <v>149</v>
       </c>
       <c r="B41" t="n">
-        <v>133315</v>
+        <v>164142</v>
       </c>
       <c r="C41" t="s">
         <v>375</v>
@@ -6256,7 +6256,7 @@
         <v>149</v>
       </c>
       <c r="B42" t="n">
-        <v>133316</v>
+        <v>164143</v>
       </c>
       <c r="C42" t="s">
         <v>385</v>
@@ -6323,7 +6323,7 @@
         <v>149</v>
       </c>
       <c r="B43" t="n">
-        <v>133317</v>
+        <v>164144</v>
       </c>
       <c r="C43" t="s">
         <v>392</v>
@@ -6390,7 +6390,7 @@
         <v>149</v>
       </c>
       <c r="B44" t="n">
-        <v>133318</v>
+        <v>164145</v>
       </c>
       <c r="C44" t="s">
         <v>400</v>
@@ -6593,7 +6593,7 @@
         <v>149</v>
       </c>
       <c r="B47" t="n">
-        <v>133319</v>
+        <v>164146</v>
       </c>
       <c r="C47" t="s">
         <v>425</v>
@@ -6664,7 +6664,7 @@
         <v>149</v>
       </c>
       <c r="B48" t="n">
-        <v>133320</v>
+        <v>164147</v>
       </c>
       <c r="C48" t="s">
         <v>435</v>
@@ -6735,7 +6735,7 @@
         <v>149</v>
       </c>
       <c r="B49" t="n">
-        <v>133321</v>
+        <v>164148</v>
       </c>
       <c r="C49" t="s">
         <v>443</v>
@@ -6802,7 +6802,7 @@
         <v>149</v>
       </c>
       <c r="B50" t="n">
-        <v>133322</v>
+        <v>164149</v>
       </c>
       <c r="C50" t="s">
         <v>450</v>
@@ -6936,7 +6936,7 @@
         <v>149</v>
       </c>
       <c r="B52" t="n">
-        <v>133323</v>
+        <v>164150</v>
       </c>
       <c r="C52" t="s">
         <v>465</v>
@@ -7072,7 +7072,7 @@
         <v>149</v>
       </c>
       <c r="B54" t="n">
-        <v>133324</v>
+        <v>164151</v>
       </c>
       <c r="C54" t="s">
         <v>479</v>
@@ -7200,7 +7200,7 @@
         <v>149</v>
       </c>
       <c r="B56" t="n">
-        <v>133325</v>
+        <v>164152</v>
       </c>
       <c r="C56" t="s">
         <v>493</v>
@@ -7338,7 +7338,7 @@
         <v>149</v>
       </c>
       <c r="B58" t="n">
-        <v>133326</v>
+        <v>164153</v>
       </c>
       <c r="C58" t="s">
         <v>510</v>
@@ -7403,7 +7403,7 @@
         <v>149</v>
       </c>
       <c r="B59" t="n">
-        <v>133327</v>
+        <v>164154</v>
       </c>
       <c r="C59" t="s">
         <v>517</v>
@@ -7474,7 +7474,7 @@
         <v>149</v>
       </c>
       <c r="B60" t="n">
-        <v>133328</v>
+        <v>164155</v>
       </c>
       <c r="C60" t="s">
         <v>526</v>
@@ -7608,7 +7608,7 @@
         <v>149</v>
       </c>
       <c r="B62" t="n">
-        <v>133329</v>
+        <v>164156</v>
       </c>
       <c r="C62" t="s">
         <v>545</v>
@@ -7742,7 +7742,7 @@
         <v>149</v>
       </c>
       <c r="B64" t="n">
-        <v>133330</v>
+        <v>164157</v>
       </c>
       <c r="C64" t="s">
         <v>563</v>
@@ -7880,7 +7880,7 @@
         <v>149</v>
       </c>
       <c r="B66" t="n">
-        <v>133331</v>
+        <v>164158</v>
       </c>
       <c r="C66" t="s">
         <v>576</v>
@@ -8012,7 +8012,7 @@
         <v>149</v>
       </c>
       <c r="B68" t="n">
-        <v>133332</v>
+        <v>164159</v>
       </c>
       <c r="C68" t="s">
         <v>589</v>
@@ -8079,7 +8079,7 @@
         <v>149</v>
       </c>
       <c r="B69" t="n">
-        <v>133333</v>
+        <v>164160</v>
       </c>
       <c r="C69" t="s">
         <v>597</v>
@@ -8343,7 +8343,7 @@
         <v>149</v>
       </c>
       <c r="B73" t="n">
-        <v>133334</v>
+        <v>164161</v>
       </c>
       <c r="C73" t="s">
         <v>628</v>
@@ -8412,7 +8412,7 @@
         <v>149</v>
       </c>
       <c r="B74" t="n">
-        <v>133335</v>
+        <v>164162</v>
       </c>
       <c r="C74" t="s">
         <v>635</v>
@@ -8554,7 +8554,7 @@
         <v>149</v>
       </c>
       <c r="B76" t="n">
-        <v>133336</v>
+        <v>164163</v>
       </c>
       <c r="C76" t="s">
         <v>650</v>
@@ -8625,7 +8625,7 @@
         <v>149</v>
       </c>
       <c r="B77" t="n">
-        <v>133337</v>
+        <v>164164</v>
       </c>
       <c r="C77" t="s">
         <v>657</v>
@@ -8761,7 +8761,7 @@
         <v>149</v>
       </c>
       <c r="B79" t="n">
-        <v>133338</v>
+        <v>164165</v>
       </c>
       <c r="C79" t="s">
         <v>672</v>
@@ -8901,7 +8901,7 @@
         <v>149</v>
       </c>
       <c r="B81" t="n">
-        <v>133339</v>
+        <v>164166</v>
       </c>
       <c r="C81" t="s">
         <v>686</v>
@@ -8966,7 +8966,7 @@
         <v>149</v>
       </c>
       <c r="B82" t="n">
-        <v>133340</v>
+        <v>164167</v>
       </c>
       <c r="C82" t="s">
         <v>693</v>
@@ -9181,7 +9181,7 @@
         <v>149</v>
       </c>
       <c r="B85" t="n">
-        <v>133341</v>
+        <v>164168</v>
       </c>
       <c r="C85" t="s">
         <v>714</v>
@@ -9256,7 +9256,7 @@
         <v>149</v>
       </c>
       <c r="B86" t="n">
-        <v>133342</v>
+        <v>133315</v>
       </c>
       <c r="C86" t="s">
         <v>722</v>
@@ -9327,7 +9327,7 @@
         <v>149</v>
       </c>
       <c r="B87" t="n">
-        <v>133343</v>
+        <v>164169</v>
       </c>
       <c r="C87" t="s">
         <v>729</v>
@@ -9392,7 +9392,7 @@
         <v>149</v>
       </c>
       <c r="B88" t="n">
-        <v>133344</v>
+        <v>164170</v>
       </c>
       <c r="C88" t="s">
         <v>738</v>
@@ -9467,7 +9467,7 @@
         <v>149</v>
       </c>
       <c r="B89" t="n">
-        <v>133345</v>
+        <v>164171</v>
       </c>
       <c r="C89" t="s">
         <v>744</v>
@@ -9532,7 +9532,7 @@
         <v>149</v>
       </c>
       <c r="B90" t="n">
-        <v>133346</v>
+        <v>164172</v>
       </c>
       <c r="C90" t="s">
         <v>753</v>
@@ -9607,7 +9607,7 @@
         <v>149</v>
       </c>
       <c r="B91" t="n">
-        <v>133347</v>
+        <v>164173</v>
       </c>
       <c r="C91" t="s">
         <v>761</v>
@@ -9672,7 +9672,7 @@
         <v>149</v>
       </c>
       <c r="B92" t="n">
-        <v>133341</v>
+        <v>133315</v>
       </c>
       <c r="C92" t="s">
         <v>722</v>
@@ -9737,7 +9737,7 @@
         <v>149</v>
       </c>
       <c r="B93" t="n">
-        <v>133348</v>
+        <v>164174</v>
       </c>
       <c r="C93" t="s">
         <v>777</v>
@@ -9952,7 +9952,7 @@
         <v>149</v>
       </c>
       <c r="B96" t="n">
-        <v>133349</v>
+        <v>164175</v>
       </c>
       <c r="C96" t="s">
         <v>801</v>
@@ -10027,7 +10027,7 @@
         <v>149</v>
       </c>
       <c r="B97" t="n">
-        <v>133350</v>
+        <v>164176</v>
       </c>
       <c r="C97" t="s">
         <v>810</v>
@@ -10102,7 +10102,7 @@
         <v>149</v>
       </c>
       <c r="B98" t="n">
-        <v>133351</v>
+        <v>164177</v>
       </c>
       <c r="C98" t="s">
         <v>820</v>
@@ -10177,7 +10177,7 @@
         <v>149</v>
       </c>
       <c r="B99" t="n">
-        <v>133352</v>
+        <v>164178</v>
       </c>
       <c r="C99" t="s">
         <v>829</v>
@@ -10325,7 +10325,7 @@
         <v>149</v>
       </c>
       <c r="B101" t="n">
-        <v>133353</v>
+        <v>164179</v>
       </c>
       <c r="C101" t="s">
         <v>847</v>
@@ -10400,7 +10400,7 @@
         <v>149</v>
       </c>
       <c r="B102" t="n">
-        <v>133354</v>
+        <v>164180</v>
       </c>
       <c r="C102" t="s">
         <v>854</v>
@@ -10540,7 +10540,7 @@
         <v>149</v>
       </c>
       <c r="B104" t="n">
-        <v>133355</v>
+        <v>164181</v>
       </c>
       <c r="C104" t="s">
         <v>868</v>
@@ -10615,7 +10615,7 @@
         <v>149</v>
       </c>
       <c r="B105" t="n">
-        <v>133356</v>
+        <v>164182</v>
       </c>
       <c r="C105" t="s">
         <v>876</v>
@@ -10690,7 +10690,7 @@
         <v>149</v>
       </c>
       <c r="B106" t="n">
-        <v>133357</v>
+        <v>164183</v>
       </c>
       <c r="C106" t="s">
         <v>883</v>
@@ -10893,7 +10893,7 @@
         <v>149</v>
       </c>
       <c r="B109" t="n">
-        <v>133358</v>
+        <v>164184</v>
       </c>
       <c r="C109" t="s">
         <v>905</v>
@@ -11035,7 +11035,7 @@
         <v>149</v>
       </c>
       <c r="B111" t="n">
-        <v>133359</v>
+        <v>164185</v>
       </c>
       <c r="C111" t="s">
         <v>918</v>
@@ -11106,7 +11106,7 @@
         <v>149</v>
       </c>
       <c r="B112" t="n">
-        <v>133360</v>
+        <v>164186</v>
       </c>
       <c r="C112" t="s">
         <v>924</v>
@@ -11177,7 +11177,7 @@
         <v>149</v>
       </c>
       <c r="B113" t="n">
-        <v>133361</v>
+        <v>164187</v>
       </c>
       <c r="C113" t="s">
         <v>930</v>
@@ -11248,7 +11248,7 @@
         <v>149</v>
       </c>
       <c r="B114" t="n">
-        <v>133362</v>
+        <v>164188</v>
       </c>
       <c r="C114" t="s">
         <v>937</v>
@@ -11317,7 +11317,7 @@
         <v>149</v>
       </c>
       <c r="B115" t="n">
-        <v>133363</v>
+        <v>164189</v>
       </c>
       <c r="C115" t="s">
         <v>944</v>
@@ -11382,7 +11382,7 @@
         <v>149</v>
       </c>
       <c r="B116" t="n">
-        <v>133364</v>
+        <v>164190</v>
       </c>
       <c r="C116" t="s">
         <v>951</v>
@@ -11443,7 +11443,7 @@
         <v>149</v>
       </c>
       <c r="B117" t="n">
-        <v>133365</v>
+        <v>164191</v>
       </c>
       <c r="C117" t="s">
         <v>958</v>
@@ -11514,7 +11514,7 @@
         <v>149</v>
       </c>
       <c r="B118" t="n">
-        <v>133366</v>
+        <v>164192</v>
       </c>
       <c r="C118" t="s">
         <v>964</v>
@@ -11585,7 +11585,7 @@
         <v>149</v>
       </c>
       <c r="B119" t="n">
-        <v>133367</v>
+        <v>164193</v>
       </c>
       <c r="C119" t="s">
         <v>970</v>
@@ -11723,7 +11723,7 @@
         <v>149</v>
       </c>
       <c r="B121" t="n">
-        <v>133368</v>
+        <v>164194</v>
       </c>
       <c r="C121" t="s">
         <v>983</v>
